--- a/medicine/Sexualité et sexologie/Rendez-vous_galant/Rendez-vous_galant.xlsx
+++ b/medicine/Sexualité et sexologie/Rendez-vous_galant/Rendez-vous_galant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un rendez-vous galant, ou un date, est une forme de séduction constituée d'activités sociales réalisées par deux personnes dans le but d'évaluer l'adéquation entre elles comme partenaire pour une relation intime. Bien que le terme rendez-vous ait plusieurs sens, il se réfère généralement à l'acte de réunion et d'engagement dans des activités sociales mutuellement convenues, ensemble en public, comme un couple.
 </t>
